--- a/data/processed/state_overviews/pennsylvania_overview.xlsx
+++ b/data/processed/state_overviews/pennsylvania_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>6175</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6,175</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>55</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Allegheny County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>815</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Armstrong County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>28</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Beaver County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>55</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Bedford County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>28</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Berks County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>162</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Blair County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>66</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Bradford County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>35</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Bucks County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>207</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Butler County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>83</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Cambria County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>89</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Cameron County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Carbon County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>22</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Centre County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>80</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Chester County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>225</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Clarion County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>26</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Clearfield County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>55</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>24</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Columbia County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>36</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Crawford County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>57</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Cumberland County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>125</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Dauphin County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>178</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Delaware County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>198</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Elk County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>29</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Erie County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>172</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Fayette County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>47</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Forest County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>2</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>76</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Fulton County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>7</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>16</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Huntingdon County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>28</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Indiana County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>43</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>23</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Juniata County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>14</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Lackawanna County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>108</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Lancaster County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>258</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>40</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Lebanon County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>58</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Lehigh County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>161</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Luzerne County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>102</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Lycoming County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>50</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>McKean County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>24</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>60</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Mifflin County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>25</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>49</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>370</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Montour County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>22</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Northampton County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>101</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Northumberland County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>32</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>23</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Philadelphia County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>850</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Pike County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>23</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Potter County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>10</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Schuylkill County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>66</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Snyder County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>8</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Somerset County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>38</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Sullivan County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>4</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Susquehanna County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>22</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Tioga County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>36</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>29</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Venango County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>25</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>32</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>82</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>31</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Westmoreland County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>137</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Wyoming County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>18</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>York County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>171</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2465,6 +2601,38 @@
       <c r="F68" t="inlineStr">
         <is>
           <t>63.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6,175</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>$13,203,162,114</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.69%</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-11.29%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>66.87%</t>
         </is>
       </c>
     </row>
@@ -2519,8 +2687,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>246</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>402</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>319</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>590</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2639,8 +2815,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>422</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2669,8 +2847,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>337</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2699,8 +2879,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>435</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2729,8 +2911,10 @@
           <t>Congressional District 16</t>
         </is>
       </c>
-      <c r="B9">
-        <v>424</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2759,8 +2943,10 @@
           <t>Congressional District 17</t>
         </is>
       </c>
-      <c r="B10">
-        <v>304</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2789,8 +2975,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B11">
-        <v>299</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2819,8 +3007,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B12">
-        <v>530</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2849,8 +3039,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B13">
-        <v>313</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2879,8 +3071,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B14">
-        <v>285</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2909,8 +3103,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B15">
-        <v>317</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2939,8 +3135,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B16">
-        <v>286</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2969,8 +3167,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B17">
-        <v>298</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2999,8 +3199,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B18">
-        <v>368</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3029,8 +3231,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B19">
-        <v>6175</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6,175</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3104,8 +3308,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2070</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2,070</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3134,8 +3340,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1437</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,437</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3164,8 +3372,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>912</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3194,8 +3404,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>437</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3224,8 +3436,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>894</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3254,8 +3468,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>425</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3284,8 +3500,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>6175</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6,175</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3359,8 +3577,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>466</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3389,8 +3609,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>727</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3419,8 +3641,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>183</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3449,8 +3673,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>613</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3479,8 +3705,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>63</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3509,8 +3737,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>2164</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2,164</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3539,8 +3769,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>30</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3569,8 +3801,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>6</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3599,8 +3833,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>456</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3629,8 +3865,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>109</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3659,8 +3897,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>1266</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1,266</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3689,8 +3929,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>92</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3719,8 +3961,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>6175</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6,175</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/pennsylvania_overview.xlsx
+++ b/data/processed/state_overviews/pennsylvania_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,86 +431,86 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$56,371,119</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.73%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-6.15%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>58.18%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allegheny County</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>6,175</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,981,940,328</t>
+          <t>$13,203,162,114</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.80%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,78 +520,78 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.98%</t>
+          <t>66.87%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Armstrong County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$19,395,396</t>
+          <t>$56,371,119</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.59%</t>
+          <t>16.73%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-5.57%</t>
+          <t>-6.15%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>58.18%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Beaver County</t>
+          <t>Allegheny County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>815</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$43,217,406</t>
+          <t>$1,981,940,328</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>9.80%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-17.17%</t>
+          <t>-11.29%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.91%</t>
+          <t>67.98%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bedford County</t>
+          <t>Armstrong County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -601,1501 +601,1501 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$49,097,030</t>
+          <t>$19,395,396</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16.15%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.78%</t>
+          <t>-5.57%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60.71%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Berks County</t>
+          <t>Beaver County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$150,249,883</t>
+          <t>$43,217,406</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-11.92%</t>
+          <t>-17.17%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.81%</t>
+          <t>70.91%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blair County</t>
+          <t>Bedford County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$121,445,383</t>
+          <t>$49,097,030</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.53%</t>
+          <t>16.15%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-40.94%</t>
+          <t>-16.78%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>78.79%</t>
+          <t>60.71%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bradford County</t>
+          <t>Berks County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$43,182,002</t>
+          <t>$150,249,883</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-22.92%</t>
+          <t>-11.92%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>62.86%</t>
+          <t>64.81%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bucks County</t>
+          <t>Blair County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$202,408,580</t>
+          <t>$121,445,383</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.04%</t>
+          <t>6.53%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-16.74%</t>
+          <t>-40.94%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71.01%</t>
+          <t>78.79%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Bradford County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$77,041,186</t>
+          <t>$43,182,002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.69%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.82%</t>
+          <t>-22.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.88%</t>
+          <t>62.86%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cambria County</t>
+          <t>Bucks County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$129,432,126</t>
+          <t>$202,408,580</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.94%</t>
+          <t>9.04%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-22.19%</t>
+          <t>-16.74%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77.53%</t>
+          <t>71.01%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cameron County</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$10,886,772</t>
+          <t>$77,041,186</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.49%</t>
+          <t>6.69%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-57.76%</t>
+          <t>-11.82%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>69.88%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Carbon County</t>
+          <t>Cambria County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$4,464,756</t>
+          <t>$129,432,126</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>8.94%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-19.47%</t>
+          <t>-22.19%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>77.53%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Centre County</t>
+          <t>Cameron County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$52,040,248</t>
+          <t>$10,886,772</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14.53%</t>
+          <t>0.49%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-4.73%</t>
+          <t>-57.76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>56.25%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chester County</t>
+          <t>Carbon County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$154,468,155</t>
+          <t>$4,464,756</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-8.07%</t>
+          <t>-19.47%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>62.22%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Clarion County</t>
+          <t>Centre County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$9,497,357</t>
+          <t>$52,040,248</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9.64%</t>
+          <t>14.53%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-8.82%</t>
+          <t>-4.73%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>65.38%</t>
+          <t>56.25%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Clearfield County</t>
+          <t>Chester County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$85,349,228</t>
+          <t>$154,468,155</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.97%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-6.00%</t>
+          <t>-8.07%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>58.18%</t>
+          <t>62.22%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Clarion County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$11,167,931</t>
+          <t>$9,497,357</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>9.64%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-24.05%</t>
+          <t>-8.82%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>65.38%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Columbia County</t>
+          <t>Clearfield County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$13,188,178</t>
+          <t>$85,349,228</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18.84%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-6.00%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>58.18%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crawford County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$76,373,737</t>
+          <t>$11,167,931</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9.81%</t>
+          <t>2.92%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-14.84%</t>
+          <t>-24.05%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>64.91%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cumberland County</t>
+          <t>Columbia County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$121,552,721</t>
+          <t>$13,188,178</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.07%</t>
+          <t>18.84%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-9.71%</t>
+          <t>-7.00%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>63.20%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dauphin County</t>
+          <t>Crawford County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$792,656,637</t>
+          <t>$76,373,737</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.88%</t>
+          <t>9.81%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-12.99%</t>
+          <t>-14.84%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>63.48%</t>
+          <t>64.91%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Delaware County</t>
+          <t>Cumberland County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>125</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$305,803,309</t>
+          <t>$121,552,721</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.89%</t>
+          <t>10.07%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-11.78%</t>
+          <t>-9.71%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>70.20%</t>
+          <t>63.20%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Elk County</t>
+          <t>Dauphin County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$23,639,447</t>
+          <t>$792,656,637</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>13.82%</t>
+          <t>7.88%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-15.47%</t>
+          <t>-12.99%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>72.41%</t>
+          <t>63.48%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Erie County</t>
+          <t>Delaware County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$276,643,608</t>
+          <t>$305,803,309</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>7.89%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-17.65%</t>
+          <t>-11.78%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>79.07%</t>
+          <t>70.20%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fayette County</t>
+          <t>Elk County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$34,442,376</t>
+          <t>$23,639,447</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>13.82%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-14.75%</t>
+          <t>-15.47%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>63.83%</t>
+          <t>72.41%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Forest County</t>
+          <t>Erie County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$48,897</t>
+          <t>$276,643,608</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25.05%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13.60%</t>
+          <t>-17.65%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>79.07%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Fayette County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$68,458,611</t>
+          <t>$34,442,376</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15.89%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-2.73%</t>
+          <t>-14.75%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>53.95%</t>
+          <t>63.83%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fulton County</t>
+          <t>Forest County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$6,524,688</t>
+          <t>$48,897</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.06%</t>
+          <t>25.05%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-29.20%</t>
+          <t>13.60%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>76</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$16,106,139</t>
+          <t>$68,458,611</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11.09%</t>
+          <t>15.89%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-19.29%</t>
+          <t>-2.73%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>53.95%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Huntingdon County</t>
+          <t>Fulton County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$16,128,571</t>
+          <t>$6,524,688</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.11%</t>
+          <t>1.06%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-13.87%</t>
+          <t>-29.20%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Indiana County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$38,846,510</t>
+          <t>$16,106,139</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.24%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-11.78%</t>
+          <t>-19.29%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>62.79%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Huntingdon County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$16,431,578</t>
+          <t>$16,128,571</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9.45%</t>
+          <t>4.11%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-3.14%</t>
+          <t>-13.87%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Juniata County</t>
+          <t>Indiana County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$1,312,940</t>
+          <t>$38,846,510</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17.52%</t>
+          <t>10.24%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>-11.78%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>62.79%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lackawanna County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$154,841,304</t>
+          <t>$16,431,578</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8.18%</t>
+          <t>9.45%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-11.21%</t>
+          <t>-3.14%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>69.44%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lancaster County</t>
+          <t>Juniata County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$180,058,413</t>
+          <t>$1,312,940</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.65%</t>
+          <t>17.52%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-5.58%</t>
+          <t>1.68%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>58.91%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Lackawanna County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$587,970,853</t>
+          <t>$154,841,304</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7.27%</t>
+          <t>8.18%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-53.51%</t>
+          <t>-11.21%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>77.50%</t>
+          <t>69.44%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lebanon County</t>
+          <t>Lancaster County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>258</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$22,369,322</t>
+          <t>$180,058,413</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>13.65%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-5.27%</t>
+          <t>-5.58%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>63.79%</t>
+          <t>58.91%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lehigh County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$482,499,091</t>
+          <t>$587,970,853</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>7.27%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-13.15%</t>
+          <t>-53.51%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>77.50%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Luzerne County</t>
+          <t>Lebanon County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$158,427,954</t>
+          <t>$22,369,322</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12.62%</t>
+          <t>13.48%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-5.79%</t>
+          <t>-5.27%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>61.76%</t>
+          <t>63.79%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lycoming County</t>
+          <t>Lehigh County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$157,319,483</t>
+          <t>$482,499,091</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.96%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-25.53%</t>
+          <t>-13.15%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>78.00%</t>
+          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>McKean County</t>
+          <t>Luzerne County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$20,723,247</t>
+          <t>$158,427,954</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11.44%</t>
+          <t>12.62%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-10.93%</t>
+          <t>-5.79%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>61.76%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>Lycoming County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$102,614,310</t>
+          <t>$157,319,483</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.97%</t>
+          <t>5.96%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-25.44%</t>
+          <t>-25.53%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>78.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mifflin County</t>
+          <t>McKean County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$15,094,239</t>
+          <t>$20,723,247</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.88%</t>
+          <t>11.44%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-12.41%</t>
+          <t>-10.93%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>60</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$47,192,227</t>
+          <t>$102,614,310</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>13.52%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-31.18%</t>
+          <t>-25.44%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>75.51%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Mifflin County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$470,111,314</t>
+          <t>$15,094,239</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10.58%</t>
+          <t>3.88%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-7.53%</t>
+          <t>-12.41%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>60.81%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Montour County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$82,365,002</t>
+          <t>$47,192,227</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>13.52%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>-31.18%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.51%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Northampton County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>370</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$168,819,793</t>
+          <t>$470,111,314</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>10.58%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-15.55%</t>
+          <t>-7.53%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>71.29%</t>
+          <t>60.81%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Northumberland County</t>
+          <t>Montour County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$22,947,469</t>
+          <t>$82,365,002</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12.45%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-4.95%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Northampton County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$1,952,550</t>
+          <t>$168,819,793</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>30.16%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4.73%</t>
+          <t>-15.55%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>47.83%</t>
+          <t>71.29%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Philadelphia County</t>
+          <t>Northumberland County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$4,672,655,882</t>
+          <t>$22,947,469</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>12.45%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-11.95%</t>
+          <t>-4.95%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>69.65%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2105,534 +2105,566 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$5,031,221</t>
+          <t>$1,952,550</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>30.16%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-45.06%</t>
+          <t>4.73%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>91.30%</t>
+          <t>47.83%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Potter County</t>
+          <t>Philadelphia County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>850</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,156,286</t>
+          <t>$4,672,655,882</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.77%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-26.39%</t>
+          <t>-11.95%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>69.65%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Schuylkill County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$33,125,772</t>
+          <t>$5,031,221</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10.27%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-6.92%</t>
+          <t>-45.06%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>91.30%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Snyder County</t>
+          <t>Potter County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$2,448,370</t>
+          <t>$1,156,286</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>4.77%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-10.75%</t>
+          <t>-26.39%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Somerset County</t>
+          <t>Schuylkill County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$70,420,367</t>
+          <t>$33,125,772</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19.40%</t>
+          <t>10.27%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-8.27%</t>
+          <t>-6.92%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>57.89%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sullivan County</t>
+          <t>Snyder County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$146,542</t>
+          <t>$2,448,370</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>33.95%</t>
+          <t>9.58%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>18.06%</t>
+          <t>-10.75%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Susquehanna County</t>
+          <t>Somerset County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$18,670,968</t>
+          <t>$70,420,367</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>13.86%</t>
+          <t>19.40%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-3.53%</t>
+          <t>-8.27%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>59.09%</t>
+          <t>57.89%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tioga County</t>
+          <t>Sullivan County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$20,551,685</t>
+          <t>$146,542</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14.49%</t>
+          <t>33.95%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-7.70%</t>
+          <t>18.06%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>63.89%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Susquehanna County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$48,235,816</t>
+          <t>$18,670,968</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>13.86%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-12.20%</t>
+          <t>-3.53%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>72.41%</t>
+          <t>59.09%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Venango County</t>
+          <t>Tioga County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$5,936,038</t>
+          <t>$20,551,685</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>11.00%</t>
+          <t>14.49%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-19.79%</t>
+          <t>-7.70%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>63.89%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$24,620,238</t>
+          <t>$48,235,816</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14.95%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-9.36%</t>
+          <t>-12.20%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>59.38%</t>
+          <t>72.41%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Venango County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$131,854,093</t>
+          <t>$5,936,038</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>11.00%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-13.71%</t>
+          <t>-19.79%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>75.61%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$25,315,615</t>
+          <t>$24,620,238</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14.94%</t>
+          <t>14.95%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-10.60%</t>
+          <t>-9.36%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>67.74%</t>
+          <t>59.38%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Westmoreland County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$141,239,678</t>
+          <t>$131,854,093</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>15.79%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-6.99%</t>
+          <t>-13.71%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>60.58%</t>
+          <t>75.61%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Wyoming County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$9,236,259</t>
+          <t>$25,315,615</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>14.94%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-12.94%</t>
+          <t>-10.60%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>67.74%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>York County</t>
+          <t>Westmoreland County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>137</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$307,397,880</t>
+          <t>$141,239,678</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>15.79%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-7.66%</t>
+          <t>-6.99%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>63.74%</t>
+          <t>60.58%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wyoming County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6,175</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$13,203,162,114</t>
+          <t>$9,236,259</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>1.48%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>-12.94%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>66.87%</t>
+          <t>77.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>York County</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>$307,397,880</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.12%</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-7.66%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>63.74%</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2652,608 +2684,640 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$218,401,659</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.13%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-13.30%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>69.51%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>6,175</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,202,321,738</t>
+          <t>$13,203,162,114</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.64%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.78%</t>
+          <t>-11.29%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.94%</t>
+          <t>66.87%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>246</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$192,054,779</t>
+          <t>$218,401,659</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>9.13%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-6.94%</t>
+          <t>-13.30%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>60.19%</t>
+          <t>69.51%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>299</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,719,325,106</t>
+          <t>$1,532,811,321</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>8.72%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.70%</t>
+          <t>-12.62%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.46%</t>
+          <t>70.57%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>530</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$473,106,391</t>
+          <t>$3,113,157,372</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-12.41%</t>
+          <t>-11.94%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67.30%</t>
+          <t>69.43%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 14</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>313</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$428,326,678</t>
+          <t>$282,238,031</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-10.19%</t>
+          <t>-7.73%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.99%</t>
+          <t>61.34%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 15</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>285</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$351,884,451</t>
+          <t>$519,462,481</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.76%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>-11.06%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>64.60%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 16</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>317</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,122,490,817</t>
+          <t>$278,617,267</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-17.99%</t>
+          <t>-8.80%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>73.35%</t>
+          <t>63.41%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 17</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$310,380,819</t>
+          <t>$659,359,235</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.27%</t>
+          <t>7.72%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-13.36%</t>
+          <t>-14.24%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69.08%</t>
+          <t>70.98%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>298</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,532,811,321</t>
+          <t>$384,202,867</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.72%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-12.62%</t>
+          <t>-13.69%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70.57%</t>
+          <t>69.46%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$3,113,157,372</t>
+          <t>$415,021,102</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-11.94%</t>
+          <t>-8.97%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.43%</t>
+          <t>64.67%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>402</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$282,238,031</t>
+          <t>$1,202,321,738</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>8.64%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-7.73%</t>
+          <t>-7.78%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>61.34%</t>
+          <t>62.94%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>319</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$519,462,481</t>
+          <t>$192,054,779</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>14.00%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-11.06%</t>
+          <t>-6.94%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.19%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>590</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$278,617,267</t>
+          <t>$1,719,325,106</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-8.80%</t>
+          <t>-9.70%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>63.41%</t>
+          <t>67.46%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>13th Congressional district</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>422</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$659,359,235</t>
+          <t>$473,106,391</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.72%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-14.24%</t>
+          <t>-12.41%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>70.98%</t>
+          <t>67.30%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>14th Congressional district</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>337</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$384,202,867</t>
+          <t>$428,326,678</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-13.69%</t>
+          <t>-10.19%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>69.46%</t>
+          <t>64.99%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>15th Congressional district</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>435</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$415,021,102</t>
+          <t>$351,884,451</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>9.76%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-8.97%</t>
+          <t>-10.00%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>64.67%</t>
+          <t>64.60%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>16th Congressional district</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6,175</t>
+          <t>424</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$13,203,162,114</t>
+          <t>$1,122,490,817</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>-17.99%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>66.87%</t>
+          <t>73.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>17th Congressional district</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$310,380,819</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.27%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-13.36%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>69.08%</t>
         </is>
       </c>
     </row>
@@ -3278,34 +3342,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3337,128 +3401,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,437</t>
+          <t>894</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,181,444,901</t>
+          <t>$10,413,652,478</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>4.42%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>-6.06%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.29%</t>
+          <t>67.11%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>1,437</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$226,658,245</t>
+          <t>$1,181,444,901</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.85%</t>
+          <t>-11.29%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.12%</t>
+          <t>67.29%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>912</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,126,873,740</t>
+          <t>$226,658,245</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.53%</t>
+          <t>-12.85%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>68.65%</t>
+          <t>66.12%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>437</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$10,413,652,478</t>
+          <t>$1,126,873,740</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.42%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.06%</t>
+          <t>-10.53%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>68.65%</t>
         </is>
       </c>
     </row>
@@ -3547,34 +3611,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3606,7 +3670,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3638,7 +3702,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3670,7 +3734,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3734,7 +3798,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3766,7 +3830,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3798,160 +3862,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>456</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,161,458</t>
+          <t>$637,832,046</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-5.88%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-45.68%</t>
+          <t>-14.11%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>67.11%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$637,832,046</t>
+          <t>$63,795,389</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>14.22%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-14.11%</t>
+          <t>-0.47%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>51.38%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$63,795,389</t>
+          <t>$1,161,458</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.22%</t>
+          <t>-5.88%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>-45.68%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>51.38%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1,266</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$3,185,271,453</t>
+          <t>$2,437,833,364</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-13.73%</t>
+          <t>-2.37%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.67%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>1,266</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2,437,833,364</t>
+          <t>$3,185,271,453</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-2.37%</t>
+          <t>-13.73%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>69.67%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/pennsylvania_overview.xlsx
+++ b/data/processed/state_overviews/pennsylvania_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>66.87%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>6,175</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$13,203,162,114</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.87%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.87%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>6,175</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$13,203,162,114</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.87%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>58.18%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$56,371,119</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>16.73%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-6.15%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>58.18%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>67.98%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>815</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,981,940,328</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.80%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>67.98%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$19,395,396</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6.59%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-5.57%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.91%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$43,217,406</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.04%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-17.17%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.91%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>60.71%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$49,097,030</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>16.15%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-16.78%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>60.71%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>64.81%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>162</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$150,249,883</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.97%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-11.92%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>64.81%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>78.79%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$121,445,383</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>6.53%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-40.94%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>78.79%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>62.86%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$43,182,002</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>8.47%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-22.92%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>62.86%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>71.01%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>207</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$202,408,580</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>9.04%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-16.74%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>71.01%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>69.88%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$77,041,186</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>6.69%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-11.82%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>69.88%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>77.53%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>89</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$129,432,126</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.94%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-22.19%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>77.53%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$10,886,772</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.49%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-57.76%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$4,464,756</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9.16%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-19.47%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>56.25%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$52,040,248</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>14.53%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-4.73%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>56.25%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>62.22%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>225</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$154,468,155</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>11.52%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-8.07%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>62.22%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>65.38%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$9,497,357</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>9.64%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-8.82%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>65.38%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>58.18%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>55</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$85,349,228</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>8.97%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-6.00%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>58.18%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$11,167,931</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2.92%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-24.05%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$13,188,178</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>18.84%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-7.00%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>64.91%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>57</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$76,373,737</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>9.81%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-14.84%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>64.91%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>63.20%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>125</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$121,552,721</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>10.07%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-9.71%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>63.20%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>63.48%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$792,656,637</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>7.88%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-12.99%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>63.48%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>70.20%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>198</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$305,803,309</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>7.89%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-11.78%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>70.20%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>72.41%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$23,639,447</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>13.82%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-15.47%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>72.41%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>79.07%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$276,643,608</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>6.27%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-17.65%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>79.07%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>63.83%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>47</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$34,442,376</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>7.51%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-14.75%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>63.83%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$48,897</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>25.05%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>13.60%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>53.95%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>76</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$68,458,611</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>15.89%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-2.73%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>53.95%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$6,524,688</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1.06%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-29.20%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$16,106,139</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-19.29%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$16,128,571</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>4.11%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-13.87%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>62.79%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$38,846,510</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>10.24%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-11.78%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>62.79%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$16,431,578</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>9.45%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-3.14%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$1,312,940</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>17.52%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1.68%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>69.44%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$154,841,304</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>8.18%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-11.21%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>69.44%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>58.91%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>258</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$180,058,413</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>13.65%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-5.58%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>58.91%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>77.50%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$587,970,853</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>7.27%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-53.51%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>77.50%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>63.79%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$22,369,322</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>13.48%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-5.27%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>63.79%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>161</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$482,499,091</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>5.61%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-13.15%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>61.76%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>102</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$158,427,954</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>12.62%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-5.79%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>61.76%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>78.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$157,319,483</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>5.96%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-25.53%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>78.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$20,723,247</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>11.44%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-10.93%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$102,614,310</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>5.97%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-25.44%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$15,094,239</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>3.88%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-12.41%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>75.51%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$47,192,227</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>13.52%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-31.18%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>75.51%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>60.81%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>370</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$470,111,314</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>10.58%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-7.53%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>60.81%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$82,365,002</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>9.90%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>0.85%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>71.29%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>101</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$168,819,793</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-15.55%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>71.29%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$22,947,469</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>12.45%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-4.95%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>47.83%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$1,952,550</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>30.16%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>4.73%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>47.83%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>69.65%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>850</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$4,672,655,882</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>9.42%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-11.95%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>69.65%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>91.30%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$5,031,221</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>3.39%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-45.06%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>91.30%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$1,156,286</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>4.77%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-26.39%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$33,125,772</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>10.27%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-6.92%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$2,448,370</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>9.58%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-10.75%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>57.89%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$70,420,367</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>19.40%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-8.27%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>57.89%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$146,542</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>33.95%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>18.06%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>59.09%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$18,670,968</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>13.86%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-3.53%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>59.09%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>63.89%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$20,551,685</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>14.49%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-7.70%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>63.89%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>72.41%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$48,235,816</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>10.36%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-12.20%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>72.41%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$5,936,038</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>11.00%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-19.79%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>59.38%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$24,620,238</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>14.95%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-9.36%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>59.38%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>75.61%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>82</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$131,854,093</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>7.45%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-13.71%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>75.61%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>67.74%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$25,315,615</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>14.94%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-10.60%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>67.74%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>60.58%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>137</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$141,239,678</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>15.79%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-6.99%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>60.58%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$9,236,259</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1.48%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-12.94%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>63.74%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>171</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$307,397,880</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>11.12%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-7.66%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>63.74%</t>
         </is>
       </c>
     </row>
@@ -2689,27 +2689,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2721,27 +2721,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2753,571 +2753,571 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.87%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>6,175</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$13,203,162,114</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.87%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>69.51%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>246</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$218,401,659</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.13%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-13.30%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>69.51%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>62.94%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1,532,811,321</t>
+          <t>402</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.72%</t>
+          <t>$1,202,321,738</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.62%</t>
+          <t>8.64%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>70.57%</t>
+          <t>-7.78%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>60.19%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$3,113,157,372</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.55%</t>
+          <t>$192,054,779</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.94%</t>
+          <t>14.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.43%</t>
+          <t>-6.94%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>67.46%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$282,238,031</t>
+          <t>590</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.57%</t>
+          <t>$1,719,325,106</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-7.73%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>61.34%</t>
+          <t>-9.70%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>67.30%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$519,462,481</t>
+          <t>422</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>$473,106,391</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-11.06%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-12.41%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>64.99%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$278,617,267</t>
+          <t>337</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>$428,326,678</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.80%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.41%</t>
+          <t>-10.19%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>64.60%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$659,359,235</t>
+          <t>435</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.72%</t>
+          <t>$351,884,451</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-14.24%</t>
+          <t>9.76%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.98%</t>
+          <t>-10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>73.35%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$384,202,867</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>$1,122,490,817</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-13.69%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.46%</t>
+          <t>-17.99%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>69.08%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$415,021,102</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>$310,380,819</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8.97%</t>
+          <t>10.27%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>64.67%</t>
+          <t>-13.36%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>70.57%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,202,321,738</t>
+          <t>299</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.64%</t>
+          <t>$1,532,811,321</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-7.78%</t>
+          <t>8.72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>62.94%</t>
+          <t>-12.62%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>69.43%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$192,054,779</t>
+          <t>530</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14.00%</t>
+          <t>$3,113,157,372</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-6.94%</t>
+          <t>9.55%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>60.19%</t>
+          <t>-11.94%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>61.34%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,719,325,106</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>$282,238,031</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-9.70%</t>
+          <t>10.57%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>67.46%</t>
+          <t>-7.73%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$473,106,391</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>$519,462,481</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-12.41%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>67.30%</t>
+          <t>-11.06%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>63.41%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$428,326,678</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>$278,617,267</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-10.19%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>64.99%</t>
+          <t>-8.80%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>70.98%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$351,884,451</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.76%</t>
+          <t>$659,359,235</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-10.00%</t>
+          <t>7.72%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>64.60%</t>
+          <t>-14.24%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>69.46%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$1,122,490,817</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>$384,202,867</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-17.99%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>73.35%</t>
+          <t>-13.69%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>64.67%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$310,380,819</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.27%</t>
+          <t>$415,021,102</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-13.36%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>69.08%</t>
+          <t>-8.97%</t>
         </is>
       </c>
     </row>
@@ -3342,187 +3342,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.07%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2,070</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$235,134,887</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.76%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-16.64%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.07%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>67.29%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$10,413,652,478</t>
+          <t>1,437</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.42%</t>
+          <t>$1,181,444,901</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.06%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>-11.29%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,437</t>
+          <t>66.12%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,181,444,901</t>
+          <t>912</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>$226,658,245</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.29%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.29%</t>
+          <t>-12.85%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>68.65%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$226,658,245</t>
+          <t>437</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>$1,126,873,740</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.85%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.12%</t>
+          <t>-10.53%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>67.11%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,126,873,740</t>
+          <t>894</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>$10,413,652,478</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.53%</t>
+          <t>4.42%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.65%</t>
+          <t>-6.06%</t>
         </is>
       </c>
     </row>
@@ -3534,27 +3534,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>58.82%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>425</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$19,397,863</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>27.60%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-7.38%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>58.82%</t>
         </is>
       </c>
     </row>
@@ -3566,27 +3566,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.87%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>6,175</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$13,203,162,114</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.87%</t>
         </is>
       </c>
     </row>
@@ -3611,155 +3611,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.16%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>466</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$249,329,076</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.42%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.52%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.16%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.85%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>727</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,293,276,094</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>12.26%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.75%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.85%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>54.64%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$118,438,206</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>18.80%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-3.30%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>54.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.35%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>613</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,898,257,716</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.49%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.11%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.35%</t>
         </is>
       </c>
     </row>
@@ -3771,251 +3771,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>53.97%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$312,841,535</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2.70%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-0.23%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>53.97%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.62%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2,164</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,993,679,161</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.74%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-15.90%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.62%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>53.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$11,446,616</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>12.56%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-2.31%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>53.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>66.67%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$637,832,046</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.54%</t>
+          <t>$1,161,458</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-14.11%</t>
+          <t>-5.88%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>-45.68%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>67.11%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$63,795,389</t>
+          <t>456</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.22%</t>
+          <t>$637,832,046</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.47%</t>
+          <t>11.54%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51.38%</t>
+          <t>-14.11%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>51.38%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,161,458</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-5.88%</t>
+          <t>$63,795,389</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-45.68%</t>
+          <t>14.22%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>69.67%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,437,833,364</t>
+          <t>1,266</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.70%</t>
+          <t>$3,185,271,453</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2.37%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>-13.73%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,266</t>
+          <t>60.87%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$3,185,271,453</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>$2,437,833,364</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-13.73%</t>
+          <t>5.70%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.67%</t>
+          <t>-2.37%</t>
         </is>
       </c>
     </row>
@@ -4027,27 +4027,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>66.87%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>6,175</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$13,203,162,114</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.69%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-11.29%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>66.87%</t>
         </is>
       </c>
     </row>
